--- a/TestData/Homelink.xlsx
+++ b/TestData/Homelink.xlsx
@@ -191,36 +191,9 @@
     <t>https://macedonia.syngenta.com</t>
   </si>
   <si>
-    <t>https://www.floriproservices.com</t>
-  </si>
-  <si>
     <t>https://www.syngenta.com.eg</t>
   </si>
   <si>
-    <t>https://www.floriproservices.it</t>
-  </si>
-  <si>
-    <t>https://www.floriproservices.es</t>
-  </si>
-  <si>
-    <t>https://www.floriproservices.se</t>
-  </si>
-  <si>
-    <t>https://www.floriproservices.co.uk</t>
-  </si>
-  <si>
-    <t>https://www.floriproservices.fr/</t>
-  </si>
-  <si>
-    <t>https://www.floriproservices.de</t>
-  </si>
-  <si>
-    <t>https://www.floriproservices.nl</t>
-  </si>
-  <si>
-    <t>https://www.floriproservices.pl</t>
-  </si>
-  <si>
     <t>https://www.greencast.com.au</t>
   </si>
   <si>
@@ -270,6 +243,33 @@
   </si>
   <si>
     <t>https://www.syngentafoundation.org</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers.com</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers.it</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers.es</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers.se</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers.fr/</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers.de</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers.nl</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers.pl</t>
   </si>
 </sst>
 </file>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,7 +647,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -926,133 +926,133 @@
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>55</v>
+      <c r="A57" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>57</v>
+      <c r="A59" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>58</v>
+      <c r="A60" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>59</v>
+      <c r="A61" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>60</v>
+      <c r="A62" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>61</v>
+      <c r="A63" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>62</v>
+      <c r="A64" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>63</v>
+      <c r="A65" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>64</v>
+      <c r="A66" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1063,6 +1063,15 @@
     <hyperlink ref="A44" r:id="rId4"/>
     <hyperlink ref="A24" r:id="rId5"/>
     <hyperlink ref="A1" r:id="rId6"/>
+    <hyperlink ref="A57" r:id="rId7"/>
+    <hyperlink ref="A59" r:id="rId8"/>
+    <hyperlink ref="A60" r:id="rId9"/>
+    <hyperlink ref="A61" r:id="rId10"/>
+    <hyperlink ref="A62" r:id="rId11"/>
+    <hyperlink ref="A63" r:id="rId12"/>
+    <hyperlink ref="A64" r:id="rId13"/>
+    <hyperlink ref="A65" r:id="rId14"/>
+    <hyperlink ref="A66" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
